--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mfge8-Itgb3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H2">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I2">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J2">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>42.46898773475407</v>
+        <v>118.24386808843</v>
       </c>
       <c r="R2">
-        <v>42.46898773475407</v>
+        <v>1064.19481279587</v>
       </c>
       <c r="S2">
-        <v>0.07221688923512012</v>
+        <v>0.1015796698791689</v>
       </c>
       <c r="T2">
-        <v>0.07221688923512012</v>
+        <v>0.1015796698791689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H3">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I3">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J3">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>123.4393650918951</v>
+        <v>135.6111272725666</v>
       </c>
       <c r="R3">
-        <v>123.4393650918951</v>
+        <v>1220.5001454531</v>
       </c>
       <c r="S3">
-        <v>0.2099039188730162</v>
+        <v>0.1164993480252798</v>
       </c>
       <c r="T3">
-        <v>0.2099039188730162</v>
+        <v>0.1164993480252798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H4">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I4">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J4">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>6.783504396729852</v>
+        <v>9.106202685906666</v>
       </c>
       <c r="R4">
-        <v>6.783504396729852</v>
+        <v>81.95582417316</v>
       </c>
       <c r="S4">
-        <v>0.0115350897625398</v>
+        <v>0.007822858619572774</v>
       </c>
       <c r="T4">
-        <v>0.0115350897625398</v>
+        <v>0.007822858619572774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.3271549683646</v>
+        <v>31.29437</v>
       </c>
       <c r="H5">
-        <v>29.3271549683646</v>
+        <v>93.88310999999999</v>
       </c>
       <c r="I5">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="J5">
-        <v>0.3127330459359014</v>
+        <v>0.2388439922596655</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>11.21880457296313</v>
+        <v>15.06527662130666</v>
       </c>
       <c r="R5">
-        <v>11.21880457296313</v>
+        <v>135.58748959176</v>
       </c>
       <c r="S5">
-        <v>0.01907714806522522</v>
+        <v>0.01294211573564408</v>
       </c>
       <c r="T5">
-        <v>0.01907714806522522</v>
+        <v>0.01294211573564408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H6">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I6">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J6">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>48.59606319029023</v>
+        <v>127.9747062325107</v>
       </c>
       <c r="R6">
-        <v>48.59606319029023</v>
+        <v>1151.772356092596</v>
       </c>
       <c r="S6">
-        <v>0.08263574669108864</v>
+        <v>0.1099391336069972</v>
       </c>
       <c r="T6">
-        <v>0.08263574669108864</v>
+        <v>0.1099391336069972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H7">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I7">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J7">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>141.2481791099082</v>
+        <v>146.7711979921644</v>
       </c>
       <c r="R7">
-        <v>141.2481791099082</v>
+        <v>1320.94078192948</v>
       </c>
       <c r="S7">
-        <v>0.2401871259364906</v>
+        <v>0.1260866214953689</v>
       </c>
       <c r="T7">
-        <v>0.2401871259364906</v>
+        <v>0.1260866214953689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H8">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I8">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J8">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>7.76217249099461</v>
+        <v>9.855594479969779</v>
       </c>
       <c r="R8">
-        <v>7.76217249099461</v>
+        <v>88.700350319728</v>
       </c>
       <c r="S8">
-        <v>0.01319927742349568</v>
+        <v>0.008466638058470692</v>
       </c>
       <c r="T8">
-        <v>0.01319927742349568</v>
+        <v>0.008466638058470692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.558235127601</v>
+        <v>33.86972933333333</v>
       </c>
       <c r="H9">
-        <v>33.558235127601</v>
+        <v>101.609188</v>
       </c>
       <c r="I9">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="J9">
-        <v>0.357851591775902</v>
+        <v>0.2584995758255442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>12.83736121407675</v>
+        <v>16.30506833962311</v>
       </c>
       <c r="R9">
-        <v>12.83736121407675</v>
+        <v>146.745615056608</v>
       </c>
       <c r="S9">
-        <v>0.02182944172482703</v>
+        <v>0.01400718266470739</v>
       </c>
       <c r="T9">
-        <v>0.02182944172482703</v>
+        <v>0.01400718266470739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H10">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I10">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J10">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>12.75469994654135</v>
+        <v>40.317470619356</v>
       </c>
       <c r="R10">
-        <v>12.75469994654135</v>
+        <v>362.857235574204</v>
       </c>
       <c r="S10">
-        <v>0.02168887940111633</v>
+        <v>0.03463549883884429</v>
       </c>
       <c r="T10">
-        <v>0.02168887940111633</v>
+        <v>0.03463549883884429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H11">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I11">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J11">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>37.07251213925855</v>
+        <v>46.23916426161333</v>
       </c>
       <c r="R11">
-        <v>37.07251213925855</v>
+        <v>416.15247835452</v>
       </c>
       <c r="S11">
-        <v>0.06304038889623853</v>
+        <v>0.03972264369489904</v>
       </c>
       <c r="T11">
-        <v>0.06304038889623853</v>
+        <v>0.03972264369489904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H12">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I12">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J12">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>2.037288096121237</v>
+        <v>3.104931064741334</v>
       </c>
       <c r="R12">
-        <v>2.037288096121237</v>
+        <v>27.944379582672</v>
       </c>
       <c r="S12">
-        <v>0.003464330482669276</v>
+        <v>0.002667350769666358</v>
       </c>
       <c r="T12">
-        <v>0.003464330482669276</v>
+        <v>0.002667350769666358</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.807816758982989</v>
+        <v>10.670404</v>
       </c>
       <c r="H13">
-        <v>8.807816758982989</v>
+        <v>32.011212</v>
       </c>
       <c r="I13">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="J13">
-        <v>0.09392303365441763</v>
+        <v>0.08143835106389757</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N13">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O13">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P13">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q13">
-        <v>3.36934063464697</v>
+        <v>5.136789394421332</v>
       </c>
       <c r="R13">
-        <v>3.36934063464697</v>
+        <v>46.231104549792</v>
       </c>
       <c r="S13">
-        <v>0.005729434874393495</v>
+        <v>0.004412857760487892</v>
       </c>
       <c r="T13">
-        <v>0.005729434874393495</v>
+        <v>0.004412857760487893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H14">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I14">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J14">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N14">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P14">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q14">
-        <v>31.97973781902948</v>
+        <v>208.5313292471103</v>
       </c>
       <c r="R14">
-        <v>31.97973781902948</v>
+        <v>1876.781963223993</v>
       </c>
       <c r="S14">
-        <v>0.05438032095959511</v>
+        <v>0.1791428505074288</v>
       </c>
       <c r="T14">
-        <v>0.05438032095959511</v>
+        <v>0.1791428505074288</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H15">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I15">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J15">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N15">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P15">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q15">
-        <v>92.95155695354187</v>
+        <v>239.1597051755655</v>
       </c>
       <c r="R15">
-        <v>92.95155695354187</v>
+        <v>2152.43734658009</v>
       </c>
       <c r="S15">
-        <v>0.1580605672701882</v>
+        <v>0.205454746135038</v>
       </c>
       <c r="T15">
-        <v>0.1580605672701882</v>
+        <v>0.2054547461350381</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H16">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I16">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J16">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N16">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P16">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q16">
-        <v>5.10807305925326</v>
+        <v>16.05942516245822</v>
       </c>
       <c r="R16">
-        <v>5.10807305925326</v>
+        <v>144.534826462124</v>
       </c>
       <c r="S16">
-        <v>0.008686082857188452</v>
+        <v>0.01379615816721871</v>
       </c>
       <c r="T16">
-        <v>0.008686082857188452</v>
+        <v>0.01379615816721871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.0837551562089</v>
+        <v>55.18980966666666</v>
       </c>
       <c r="H17">
-        <v>22.0837551562089</v>
+        <v>165.569429</v>
       </c>
       <c r="I17">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="J17">
-        <v>0.2354923286337789</v>
+        <v>0.4212180808508926</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N17">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O17">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P17">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q17">
-        <v>8.447915715040468</v>
+        <v>26.56866871918488</v>
       </c>
       <c r="R17">
-        <v>8.447915715040468</v>
+        <v>239.118018472664</v>
       </c>
       <c r="S17">
-        <v>0.01436535754680711</v>
+        <v>0.02282432604120704</v>
       </c>
       <c r="T17">
-        <v>0.01436535754680711</v>
+        <v>0.02282432604120704</v>
       </c>
     </row>
   </sheetData>
